--- a/biology/Botanique/Carline_à_feuilles_d'acanthe/Carline_à_feuilles_d'acanthe.xlsx
+++ b/biology/Botanique/Carline_à_feuilles_d'acanthe/Carline_à_feuilles_d'acanthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
+          <t>Carline_à_feuilles_d'acanthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlina acanthifolia
 La Carline à feuilles d'acanthe (Carlina acanthifolia) est une espèce de plantes à fleurs appartenant au genre Carlina et à la famille des Astéracées ou Composées, comme l'artichaut. Elle fleurit en été et au début de l'automne en montagne, le plus souvent dans les prés secs. Elle est endémique des montagnes européennes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
+          <t>Carline_à_feuilles_d'acanthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom générique Carlina a été emprunté à l'italien. C'est une probable variante de cardina, dérivé de cardo (= chardon), le mot s'étant croisé avec Carlo (= Charles) sans doute sous l'influence d'une légende voulant qu'un ange ait montré à Charlemagne l'espèce Carlina acaulis en la lui présentant comme un remède contre la peste. Les qualificatifs acanthifolia et cynara évoquent l'un une ressemblance avec les feuilles d'acanthe, l'autre avec celles de l'artichaut.
 Noms vernaculaires français : Carline à feuilles d'acanthe (et Carline artichaut), Baromètre (ou Chardon baromètre), Cardabelle, Chardousse, Pinchinelle.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
+          <t>Carline_à_feuilles_d'acanthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Carlina acanthifolia subsp. cynara (Pourr. ex DC.) Arcang., 1882
 			Carlina acanthifolia All., 1773 subsp. acanthifolia
-Il existe quatre sous-espèces[1],[2] :
+Il existe quatre sous-espèces, :
 Carlina acanthifolia All. subsp. acanthifolia
 Carlina acanthifolia subsp. cynara (Pourr. ex DC.) Arcang., appelée aussi « Carline artichaut ».
 Carlina acanthifolia nothosubsp. lecoqii (Arènes) B.Bock
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
+          <t>Carline_à_feuilles_d'acanthe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +599,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-espèce cynara
-Plante vivace ou bisannuelle acaule (tige inexistante ou imperceptible). Grandes feuilles en rosette étalée, vertes à l'avers, blanchâtres au revers, pennatifides à lobes épineux. L'involucre possède trois types de bractées :
+          <t>Sous-espèce cynara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace ou bisannuelle acaule (tige inexistante ou imperceptible). Grandes feuilles en rosette étalée, vertes à l'avers, blanchâtres au revers, pennatifides à lobes épineux. L'involucre possède trois types de bractées :
 Les extérieures, vertes, sont identiques aux feuilles par leur forme (caractéristique du genre Carlina).
 Les moyennes, ovales et noirâtres, fibreuses, sont entourées de cils épineux réguliers et non divisés.
 Les intérieures, rayonnantes autour du capitule, sont jaune pâle doré, légèrement membraneuses, et ont l'aspect de ligules.
 Pendant une ou plusieurs années, il y a fabrication de rosettes de feuilles et mises en réserve dans les racines pivotantes.
 Les fleurons, tous tubulés, forment au centre du capitule un disque généralement jaune pâle (couleur à peu près identique à celle des bractées intérieures).
-Sous-espèce acanthifolia
-Même description, mais espèce monocarpique dont les feuilles  sont blanchâtres des deux côtés, et les bractées moyennes sont plus épineuses, à épines irrégulières. Disque souvent rose.
 </t>
         </is>
       </c>
@@ -602,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
+          <t>Carline_à_feuilles_d'acanthe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +636,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèce acanthifolia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Même description, mais espèce monocarpique dont les feuilles  sont blanchâtres des deux côtés, et les bractées moyennes sont plus épineuses, à épines irrégulières. Disque souvent rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carline_à_feuilles_d'acanthe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carline_%C3%A0_feuilles_d%27acanthe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : capitule simple
@@ -640,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carline_à_feuilles_d'acanthe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carline_%C3%A0_feuilles_d%27acanthe</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent recherché et cueilli pour son aspect très décoratif, ce chardon sert de baromètre : la plante voit son capitule se refermer à l'approche du mauvais temps. Le capitule se conserve séché et est souvent accroché aux portes des maisons de certains villages, en guise de porte-bonheur et de protection.
 Autrefois, on mangeait son cœur comestible, ses feuilles épineuses servaient à carder la laine des moutons, sa racine était considérée comme remède contre de nombreux maux et maladies.
@@ -672,33 +732,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Carline_%C3%A0_feuilles_d%27acanthe</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carline_à_feuilles_d'acanthe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carline_%C3%A0_feuilles_d%27acanthe</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Menaces et conservations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Carline à feuilles d'acanthe est une espèce protégée en France. La sous-espèce Carlina acanthifolia subsp. cynara est « en danger critique d'extinction » (CR) en Auvergne[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Carline à feuilles d'acanthe est une espèce protégée en France. La sous-espèce Carlina acanthifolia subsp. cynara est « en danger critique d'extinction » (CR) en Auvergne.
 </t>
         </is>
       </c>
